--- a/data/bulk/out/AAA_f15_text.xlsx_out.xlsx
+++ b/data/bulk/out/AAA_f15_text.xlsx_out.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2640" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2546" uniqueCount="424">
   <si>
     <t>UNIQUEID</t>
   </si>
@@ -320,7 +320,7 @@
     <t>Desk-based Assessment</t>
   </si>
   <si>
-    <t>2022-07-26</t>
+    <t>2022-08-12</t>
   </si>
   <si>
     <t>Yes</t>
@@ -1265,70 +1265,25 @@
     <t>High</t>
   </si>
   <si>
-    <t>E03N36-42</t>
-  </si>
-  <si>
-    <t>E04N36-31</t>
-  </si>
-  <si>
-    <t>E03N36-24</t>
-  </si>
-  <si>
-    <t>E03N36-22</t>
-  </si>
-  <si>
-    <t>E04N36-13</t>
-  </si>
-  <si>
-    <t>E04N36-14</t>
-  </si>
-  <si>
-    <t>E04N36-23</t>
-  </si>
-  <si>
-    <t>E04N36-41</t>
-  </si>
-  <si>
-    <t>E04N36-12</t>
-  </si>
-  <si>
-    <t>E04N36-11</t>
-  </si>
-  <si>
-    <t>E04N35-33</t>
-  </si>
-  <si>
-    <t>E04N35-34</t>
-  </si>
-  <si>
-    <t>E04N36-24</t>
-  </si>
-  <si>
-    <t>E04N36-21</t>
-  </si>
-  <si>
-    <t>E04N36-22</t>
-  </si>
-  <si>
-    <t>E04N35-44</t>
-  </si>
-  <si>
-    <t>E04N35-43</t>
-  </si>
-  <si>
     <t>Algeria</t>
   </si>
   <si>
+    <t>Classical/Protohistoric/Pre-Islamic (North Africa)</t>
+  </si>
+  <si>
+    <t>Possible</t>
+  </si>
+  <si>
+    <t>Structure</t>
+  </si>
+  <si>
+    <t>Tomb/Grave/Burial</t>
+  </si>
+  <si>
     <t>Unknown</t>
   </si>
   <si>
     <t>Not Applicable</t>
-  </si>
-  <si>
-    <t>Structure</t>
-  </si>
-  <si>
-    <t>Tomb/Grave/Burial</t>
   </si>
 </sst>
 </file>
@@ -1733,11 +1688,9 @@
         <v>414</v>
       </c>
       <c r="X2"/>
-      <c r="Y2" t="s">
+      <c r="Y2"/>
+      <c r="Z2" t="s">
         <v>417</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>434</v>
       </c>
       <c r="AA2"/>
       <c r="AB2"/>
@@ -1781,19 +1734,19 @@
       <c r="BL2"/>
       <c r="BM2"/>
       <c r="BN2" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BO2" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BP2" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BQ2" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BR2" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="BS2"/>
       <c r="BT2"/>
@@ -1803,13 +1756,13 @@
       <c r="BX2"/>
       <c r="BY2"/>
       <c r="BZ2" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CA2" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CB2" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="CC2"/>
       <c r="CD2"/>
@@ -1993,11 +1946,9 @@
         <v>415</v>
       </c>
       <c r="X4"/>
-      <c r="Y4" t="s">
+      <c r="Y4"/>
+      <c r="Z4" t="s">
         <v>417</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>434</v>
       </c>
       <c r="AA4"/>
       <c r="AB4"/>
@@ -2041,19 +1992,19 @@
       <c r="BL4"/>
       <c r="BM4"/>
       <c r="BN4" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BO4" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BP4" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BQ4" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BR4" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="BS4"/>
       <c r="BT4"/>
@@ -2063,13 +2014,13 @@
       <c r="BX4"/>
       <c r="BY4"/>
       <c r="BZ4" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CA4" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CB4" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="CC4"/>
       <c r="CD4"/>
@@ -2253,11 +2204,9 @@
         <v>415</v>
       </c>
       <c r="X6"/>
-      <c r="Y6" t="s">
+      <c r="Y6"/>
+      <c r="Z6" t="s">
         <v>417</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>434</v>
       </c>
       <c r="AA6"/>
       <c r="AB6"/>
@@ -2301,19 +2250,19 @@
       <c r="BL6"/>
       <c r="BM6"/>
       <c r="BN6" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BO6" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BP6" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BQ6" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BR6" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="BS6"/>
       <c r="BT6"/>
@@ -2323,13 +2272,13 @@
       <c r="BX6"/>
       <c r="BY6"/>
       <c r="BZ6" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CA6" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CB6" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="CC6"/>
       <c r="CD6"/>
@@ -2513,11 +2462,9 @@
         <v>415</v>
       </c>
       <c r="X8"/>
-      <c r="Y8" t="s">
-        <v>418</v>
-      </c>
+      <c r="Y8"/>
       <c r="Z8" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="AA8"/>
       <c r="AB8"/>
@@ -2561,19 +2508,19 @@
       <c r="BL8"/>
       <c r="BM8"/>
       <c r="BN8" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BO8" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BP8" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BQ8" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BR8" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="BS8"/>
       <c r="BT8"/>
@@ -2583,13 +2530,13 @@
       <c r="BX8"/>
       <c r="BY8"/>
       <c r="BZ8" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CA8" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CB8" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="CC8"/>
       <c r="CD8"/>
@@ -2773,11 +2720,9 @@
         <v>414</v>
       </c>
       <c r="X10"/>
-      <c r="Y10" t="s">
-        <v>418</v>
-      </c>
+      <c r="Y10"/>
       <c r="Z10" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="AA10"/>
       <c r="AB10"/>
@@ -2821,19 +2766,19 @@
       <c r="BL10"/>
       <c r="BM10"/>
       <c r="BN10" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BO10" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BP10" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BQ10" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BR10" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="BS10"/>
       <c r="BT10"/>
@@ -2843,13 +2788,13 @@
       <c r="BX10"/>
       <c r="BY10"/>
       <c r="BZ10" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CA10" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CB10" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="CC10"/>
       <c r="CD10"/>
@@ -3037,11 +2982,9 @@
         <v>415</v>
       </c>
       <c r="X12"/>
-      <c r="Y12" t="s">
-        <v>418</v>
-      </c>
+      <c r="Y12"/>
       <c r="Z12" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="AA12"/>
       <c r="AB12"/>
@@ -3067,7 +3010,7 @@
       <c r="AT12"/>
       <c r="AU12"/>
       <c r="AV12" t="s">
-        <v>437</v>
+        <v>420</v>
       </c>
       <c r="AW12" t="s">
         <v>318</v>
@@ -3076,7 +3019,7 @@
       <c r="AY12"/>
       <c r="AZ12"/>
       <c r="BA12" t="s">
-        <v>438</v>
+        <v>421</v>
       </c>
       <c r="BB12"/>
       <c r="BC12"/>
@@ -3091,19 +3034,19 @@
       <c r="BL12"/>
       <c r="BM12"/>
       <c r="BN12" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BO12" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BP12" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BQ12" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BR12" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="BS12"/>
       <c r="BT12"/>
@@ -3113,13 +3056,13 @@
       <c r="BX12"/>
       <c r="BY12"/>
       <c r="BZ12" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CA12" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CB12" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="CC12"/>
       <c r="CD12"/>
@@ -3303,11 +3246,9 @@
         <v>415</v>
       </c>
       <c r="X14"/>
-      <c r="Y14" t="s">
-        <v>419</v>
-      </c>
+      <c r="Y14"/>
       <c r="Z14" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="AA14"/>
       <c r="AB14"/>
@@ -3351,19 +3292,19 @@
       <c r="BL14"/>
       <c r="BM14"/>
       <c r="BN14" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BO14" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BP14" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BQ14" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BR14" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="BS14"/>
       <c r="BT14"/>
@@ -3373,13 +3314,13 @@
       <c r="BX14"/>
       <c r="BY14"/>
       <c r="BZ14" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CA14" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CB14" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="CC14"/>
       <c r="CD14"/>
@@ -3563,11 +3504,9 @@
         <v>414</v>
       </c>
       <c r="X16"/>
-      <c r="Y16" t="s">
-        <v>419</v>
-      </c>
+      <c r="Y16"/>
       <c r="Z16" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="AA16"/>
       <c r="AB16"/>
@@ -3580,10 +3519,10 @@
       </c>
       <c r="AH16"/>
       <c r="AI16" t="s">
-        <v>435</v>
+        <v>418</v>
       </c>
       <c r="AJ16" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="AK16"/>
       <c r="AL16"/>
@@ -3615,19 +3554,19 @@
       <c r="BL16"/>
       <c r="BM16"/>
       <c r="BN16" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BO16" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BP16" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BQ16" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BR16" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="BS16"/>
       <c r="BT16"/>
@@ -3637,13 +3576,13 @@
       <c r="BX16"/>
       <c r="BY16"/>
       <c r="BZ16" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CA16" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CB16" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="CC16"/>
       <c r="CD16"/>
@@ -3720,11 +3659,9 @@
         <v>414</v>
       </c>
       <c r="X17"/>
-      <c r="Y17" t="s">
-        <v>419</v>
-      </c>
+      <c r="Y17"/>
       <c r="Z17" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="AA17"/>
       <c r="AB17"/>
@@ -3737,10 +3674,10 @@
       </c>
       <c r="AH17"/>
       <c r="AI17" t="s">
-        <v>435</v>
+        <v>418</v>
       </c>
       <c r="AJ17" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="AK17"/>
       <c r="AL17"/>
@@ -3861,11 +3798,9 @@
         <v>414</v>
       </c>
       <c r="X18"/>
-      <c r="Y18" t="s">
-        <v>419</v>
-      </c>
+      <c r="Y18"/>
       <c r="Z18" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="AA18"/>
       <c r="AB18"/>
@@ -3878,10 +3813,10 @@
       </c>
       <c r="AH18"/>
       <c r="AI18" t="s">
-        <v>435</v>
+        <v>418</v>
       </c>
       <c r="AJ18" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="AK18"/>
       <c r="AL18"/>
@@ -3913,19 +3848,19 @@
       <c r="BL18"/>
       <c r="BM18"/>
       <c r="BN18" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BO18" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BP18" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BQ18" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BR18" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="BS18"/>
       <c r="BT18"/>
@@ -3935,13 +3870,13 @@
       <c r="BX18"/>
       <c r="BY18"/>
       <c r="BZ18" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CA18" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CB18" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="CC18"/>
       <c r="CD18"/>
@@ -4018,11 +3953,9 @@
         <v>414</v>
       </c>
       <c r="X19"/>
-      <c r="Y19" t="s">
-        <v>419</v>
-      </c>
+      <c r="Y19"/>
       <c r="Z19" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="AA19"/>
       <c r="AB19"/>
@@ -4035,10 +3968,10 @@
       </c>
       <c r="AH19"/>
       <c r="AI19" t="s">
-        <v>435</v>
+        <v>418</v>
       </c>
       <c r="AJ19" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="AK19"/>
       <c r="AL19"/>
@@ -4070,19 +4003,19 @@
       <c r="BL19"/>
       <c r="BM19"/>
       <c r="BN19" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BO19" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BP19" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BQ19" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BR19" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="BS19"/>
       <c r="BT19"/>
@@ -4092,13 +4025,13 @@
       <c r="BX19"/>
       <c r="BY19"/>
       <c r="BZ19" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CA19" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CB19" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="CC19"/>
       <c r="CD19"/>
@@ -4175,11 +4108,9 @@
         <v>414</v>
       </c>
       <c r="X20"/>
-      <c r="Y20" t="s">
-        <v>419</v>
-      </c>
+      <c r="Y20"/>
       <c r="Z20" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="AA20"/>
       <c r="AB20"/>
@@ -4192,10 +4123,10 @@
       </c>
       <c r="AH20"/>
       <c r="AI20" t="s">
-        <v>435</v>
+        <v>418</v>
       </c>
       <c r="AJ20" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="AK20"/>
       <c r="AL20"/>
@@ -4227,19 +4158,19 @@
       <c r="BL20"/>
       <c r="BM20"/>
       <c r="BN20" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BO20" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BP20" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BQ20" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BR20" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="BS20"/>
       <c r="BT20"/>
@@ -4249,13 +4180,13 @@
       <c r="BX20"/>
       <c r="BY20"/>
       <c r="BZ20" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CA20" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CB20" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="CC20"/>
       <c r="CD20"/>
@@ -4332,11 +4263,9 @@
         <v>414</v>
       </c>
       <c r="X21"/>
-      <c r="Y21" t="s">
-        <v>419</v>
-      </c>
+      <c r="Y21"/>
       <c r="Z21" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="AA21"/>
       <c r="AB21"/>
@@ -4349,10 +4278,10 @@
       </c>
       <c r="AH21"/>
       <c r="AI21" t="s">
-        <v>435</v>
+        <v>418</v>
       </c>
       <c r="AJ21" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="AK21"/>
       <c r="AL21"/>
@@ -4384,19 +4313,19 @@
       <c r="BL21"/>
       <c r="BM21"/>
       <c r="BN21" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BO21" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BP21" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BQ21" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BR21" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="BS21"/>
       <c r="BT21"/>
@@ -4406,13 +4335,13 @@
       <c r="BX21"/>
       <c r="BY21"/>
       <c r="BZ21" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CA21" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CB21" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="CC21"/>
       <c r="CD21"/>
@@ -4489,11 +4418,9 @@
         <v>414</v>
       </c>
       <c r="X22"/>
-      <c r="Y22" t="s">
-        <v>419</v>
-      </c>
+      <c r="Y22"/>
       <c r="Z22" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="AA22"/>
       <c r="AB22"/>
@@ -4537,19 +4464,19 @@
       <c r="BL22"/>
       <c r="BM22"/>
       <c r="BN22" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BO22" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BP22" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BQ22" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BR22" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="BS22"/>
       <c r="BT22"/>
@@ -4559,13 +4486,13 @@
       <c r="BX22"/>
       <c r="BY22"/>
       <c r="BZ22" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CA22" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CB22" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="CC22"/>
       <c r="CD22"/>
@@ -4642,11 +4569,9 @@
         <v>415</v>
       </c>
       <c r="X23"/>
-      <c r="Y23" t="s">
-        <v>419</v>
-      </c>
+      <c r="Y23"/>
       <c r="Z23" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="AA23"/>
       <c r="AB23"/>
@@ -4659,10 +4584,10 @@
       </c>
       <c r="AH23"/>
       <c r="AI23" t="s">
-        <v>435</v>
+        <v>418</v>
       </c>
       <c r="AJ23" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="AK23"/>
       <c r="AL23"/>
@@ -4694,19 +4619,19 @@
       <c r="BL23"/>
       <c r="BM23"/>
       <c r="BN23" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BO23" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BP23" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BQ23" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BR23" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="BS23"/>
       <c r="BT23"/>
@@ -4716,13 +4641,13 @@
       <c r="BX23"/>
       <c r="BY23"/>
       <c r="BZ23" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CA23" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CB23" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="CC23"/>
       <c r="CD23"/>
@@ -4799,11 +4724,9 @@
         <v>414</v>
       </c>
       <c r="X24"/>
-      <c r="Y24" t="s">
-        <v>419</v>
-      </c>
+      <c r="Y24"/>
       <c r="Z24" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="AA24"/>
       <c r="AB24"/>
@@ -4816,10 +4739,10 @@
       </c>
       <c r="AH24"/>
       <c r="AI24" t="s">
-        <v>435</v>
+        <v>418</v>
       </c>
       <c r="AJ24" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="AK24"/>
       <c r="AL24"/>
@@ -4940,11 +4863,9 @@
         <v>414</v>
       </c>
       <c r="X25"/>
-      <c r="Y25" t="s">
-        <v>420</v>
-      </c>
+      <c r="Y25"/>
       <c r="Z25" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="AA25"/>
       <c r="AB25"/>
@@ -4957,10 +4878,10 @@
       </c>
       <c r="AH25"/>
       <c r="AI25" t="s">
-        <v>435</v>
+        <v>418</v>
       </c>
       <c r="AJ25" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="AK25"/>
       <c r="AL25"/>
@@ -4992,19 +4913,19 @@
       <c r="BL25"/>
       <c r="BM25"/>
       <c r="BN25" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BO25" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BP25" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BQ25" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BR25" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="BS25"/>
       <c r="BT25"/>
@@ -5014,13 +4935,13 @@
       <c r="BX25"/>
       <c r="BY25"/>
       <c r="BZ25" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CA25" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CB25" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="CC25"/>
       <c r="CD25"/>
@@ -5097,11 +5018,9 @@
         <v>415</v>
       </c>
       <c r="X26"/>
-      <c r="Y26" t="s">
-        <v>420</v>
-      </c>
+      <c r="Y26"/>
       <c r="Z26" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="AA26"/>
       <c r="AB26"/>
@@ -5114,10 +5033,10 @@
       </c>
       <c r="AH26"/>
       <c r="AI26" t="s">
-        <v>435</v>
+        <v>418</v>
       </c>
       <c r="AJ26" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="AK26"/>
       <c r="AL26"/>
@@ -5149,19 +5068,19 @@
       <c r="BL26"/>
       <c r="BM26"/>
       <c r="BN26" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BO26" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BP26" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BQ26" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BR26" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="BS26"/>
       <c r="BT26"/>
@@ -5171,13 +5090,13 @@
       <c r="BX26"/>
       <c r="BY26"/>
       <c r="BZ26" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CA26" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CB26" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="CC26"/>
       <c r="CD26"/>
@@ -5254,11 +5173,9 @@
         <v>415</v>
       </c>
       <c r="X27"/>
-      <c r="Y27" t="s">
-        <v>420</v>
-      </c>
+      <c r="Y27"/>
       <c r="Z27" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="AA27"/>
       <c r="AB27"/>
@@ -5271,10 +5188,10 @@
       </c>
       <c r="AH27"/>
       <c r="AI27" t="s">
-        <v>435</v>
+        <v>418</v>
       </c>
       <c r="AJ27" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="AK27"/>
       <c r="AL27"/>
@@ -5306,19 +5223,19 @@
       <c r="BL27"/>
       <c r="BM27"/>
       <c r="BN27" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BO27" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BP27" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BQ27" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BR27" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="BS27"/>
       <c r="BT27"/>
@@ -5328,13 +5245,13 @@
       <c r="BX27"/>
       <c r="BY27"/>
       <c r="BZ27" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CA27" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CB27" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="CC27"/>
       <c r="CD27"/>
@@ -5411,11 +5328,9 @@
         <v>414</v>
       </c>
       <c r="X28"/>
-      <c r="Y28" t="s">
-        <v>420</v>
-      </c>
+      <c r="Y28"/>
       <c r="Z28" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="AA28"/>
       <c r="AB28"/>
@@ -5428,10 +5343,10 @@
       </c>
       <c r="AH28"/>
       <c r="AI28" t="s">
-        <v>435</v>
+        <v>418</v>
       </c>
       <c r="AJ28" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="AK28"/>
       <c r="AL28"/>
@@ -5463,19 +5378,19 @@
       <c r="BL28"/>
       <c r="BM28"/>
       <c r="BN28" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BO28" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BP28" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BQ28" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BR28" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="BS28"/>
       <c r="BT28"/>
@@ -5485,13 +5400,13 @@
       <c r="BX28"/>
       <c r="BY28"/>
       <c r="BZ28" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CA28" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CB28" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="CC28"/>
       <c r="CD28"/>
@@ -5568,11 +5483,9 @@
         <v>415</v>
       </c>
       <c r="X29"/>
-      <c r="Y29" t="s">
-        <v>419</v>
-      </c>
+      <c r="Y29"/>
       <c r="Z29" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="AA29"/>
       <c r="AB29"/>
@@ -5585,10 +5498,10 @@
       </c>
       <c r="AH29"/>
       <c r="AI29" t="s">
-        <v>435</v>
+        <v>418</v>
       </c>
       <c r="AJ29" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="AK29"/>
       <c r="AL29"/>
@@ -5620,19 +5533,19 @@
       <c r="BL29"/>
       <c r="BM29"/>
       <c r="BN29" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BO29" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BP29" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BQ29" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BR29" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="BS29"/>
       <c r="BT29"/>
@@ -5642,13 +5555,13 @@
       <c r="BX29"/>
       <c r="BY29"/>
       <c r="BZ29" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CA29" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CB29" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="CC29"/>
       <c r="CD29"/>
@@ -5832,11 +5745,9 @@
         <v>414</v>
       </c>
       <c r="X31"/>
-      <c r="Y31" t="s">
-        <v>419</v>
-      </c>
+      <c r="Y31"/>
       <c r="Z31" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="AA31"/>
       <c r="AB31"/>
@@ -5849,10 +5760,10 @@
       </c>
       <c r="AH31"/>
       <c r="AI31" t="s">
-        <v>435</v>
+        <v>418</v>
       </c>
       <c r="AJ31" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="AK31"/>
       <c r="AL31"/>
@@ -5884,19 +5795,19 @@
       <c r="BL31"/>
       <c r="BM31"/>
       <c r="BN31" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BO31" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BP31" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BQ31" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BR31" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="BS31"/>
       <c r="BT31"/>
@@ -5906,13 +5817,13 @@
       <c r="BX31"/>
       <c r="BY31"/>
       <c r="BZ31" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CA31" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CB31" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="CC31"/>
       <c r="CD31"/>
@@ -6096,11 +6007,9 @@
         <v>415</v>
       </c>
       <c r="X33"/>
-      <c r="Y33" t="s">
-        <v>419</v>
-      </c>
+      <c r="Y33"/>
       <c r="Z33" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="AA33"/>
       <c r="AB33"/>
@@ -6113,10 +6022,10 @@
       </c>
       <c r="AH33"/>
       <c r="AI33" t="s">
-        <v>435</v>
+        <v>418</v>
       </c>
       <c r="AJ33" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="AK33"/>
       <c r="AL33"/>
@@ -6148,19 +6057,19 @@
       <c r="BL33"/>
       <c r="BM33"/>
       <c r="BN33" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BO33" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BP33" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BQ33" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BR33" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="BS33"/>
       <c r="BT33"/>
@@ -6170,13 +6079,13 @@
       <c r="BX33"/>
       <c r="BY33"/>
       <c r="BZ33" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CA33" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CB33" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="CC33"/>
       <c r="CD33"/>
@@ -6253,11 +6162,9 @@
         <v>414</v>
       </c>
       <c r="X34"/>
-      <c r="Y34" t="s">
-        <v>419</v>
-      </c>
+      <c r="Y34"/>
       <c r="Z34" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="AA34"/>
       <c r="AB34"/>
@@ -6301,19 +6208,19 @@
       <c r="BL34"/>
       <c r="BM34"/>
       <c r="BN34" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BO34" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BP34" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BQ34" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BR34" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="BS34"/>
       <c r="BT34"/>
@@ -6323,13 +6230,13 @@
       <c r="BX34"/>
       <c r="BY34"/>
       <c r="BZ34" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CA34" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CB34" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="CC34"/>
       <c r="CD34"/>
@@ -6513,11 +6420,9 @@
         <v>414</v>
       </c>
       <c r="X36"/>
-      <c r="Y36" t="s">
-        <v>421</v>
-      </c>
+      <c r="Y36"/>
       <c r="Z36" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="AA36"/>
       <c r="AB36"/>
@@ -6561,19 +6466,19 @@
       <c r="BL36"/>
       <c r="BM36"/>
       <c r="BN36" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BO36" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BP36" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BQ36" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BR36" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="BS36"/>
       <c r="BT36"/>
@@ -6583,13 +6488,13 @@
       <c r="BX36"/>
       <c r="BY36"/>
       <c r="BZ36" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CA36" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CB36" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="CC36"/>
       <c r="CD36"/>
@@ -6773,11 +6678,9 @@
         <v>414</v>
       </c>
       <c r="X38"/>
-      <c r="Y38" t="s">
-        <v>421</v>
-      </c>
+      <c r="Y38"/>
       <c r="Z38" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="AA38"/>
       <c r="AB38"/>
@@ -6790,10 +6693,10 @@
       </c>
       <c r="AH38"/>
       <c r="AI38" t="s">
-        <v>435</v>
+        <v>418</v>
       </c>
       <c r="AJ38" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="AK38"/>
       <c r="AL38"/>
@@ -7021,11 +6924,9 @@
         <v>414</v>
       </c>
       <c r="X40"/>
-      <c r="Y40" t="s">
-        <v>421</v>
-      </c>
+      <c r="Y40"/>
       <c r="Z40" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="AA40"/>
       <c r="AB40"/>
@@ -7038,10 +6939,10 @@
       </c>
       <c r="AH40"/>
       <c r="AI40" t="s">
-        <v>435</v>
+        <v>418</v>
       </c>
       <c r="AJ40" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="AK40"/>
       <c r="AL40"/>
@@ -7073,19 +6974,19 @@
       <c r="BL40"/>
       <c r="BM40"/>
       <c r="BN40" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BO40" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BP40" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BQ40" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BR40" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="BS40"/>
       <c r="BT40"/>
@@ -7095,13 +6996,13 @@
       <c r="BX40"/>
       <c r="BY40"/>
       <c r="BZ40" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CA40" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CB40" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="CC40"/>
       <c r="CD40"/>
@@ -7285,11 +7186,9 @@
         <v>414</v>
       </c>
       <c r="X42"/>
-      <c r="Y42" t="s">
-        <v>422</v>
-      </c>
+      <c r="Y42"/>
       <c r="Z42" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="AA42"/>
       <c r="AB42"/>
@@ -7302,10 +7201,10 @@
       </c>
       <c r="AH42"/>
       <c r="AI42" t="s">
-        <v>435</v>
+        <v>418</v>
       </c>
       <c r="AJ42" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="AK42"/>
       <c r="AL42"/>
@@ -7337,19 +7236,19 @@
       <c r="BL42"/>
       <c r="BM42"/>
       <c r="BN42" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BO42" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BP42" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BQ42" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BR42" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="BS42"/>
       <c r="BT42"/>
@@ -7359,13 +7258,13 @@
       <c r="BX42"/>
       <c r="BY42"/>
       <c r="BZ42" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CA42" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CB42" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="CC42"/>
       <c r="CD42"/>
@@ -7446,11 +7345,9 @@
         <v>414</v>
       </c>
       <c r="X43"/>
-      <c r="Y43" t="s">
-        <v>422</v>
-      </c>
+      <c r="Y43"/>
       <c r="Z43" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="AA43"/>
       <c r="AB43"/>
@@ -7463,10 +7360,10 @@
       </c>
       <c r="AH43"/>
       <c r="AI43" t="s">
-        <v>435</v>
+        <v>418</v>
       </c>
       <c r="AJ43" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="AK43"/>
       <c r="AL43"/>
@@ -7480,7 +7377,7 @@
       <c r="AT43"/>
       <c r="AU43"/>
       <c r="AV43" t="s">
-        <v>437</v>
+        <v>420</v>
       </c>
       <c r="AW43" t="s">
         <v>318</v>
@@ -7489,7 +7386,7 @@
       <c r="AY43"/>
       <c r="AZ43"/>
       <c r="BA43" t="s">
-        <v>438</v>
+        <v>421</v>
       </c>
       <c r="BB43"/>
       <c r="BC43"/>
@@ -7504,19 +7401,19 @@
       <c r="BL43"/>
       <c r="BM43"/>
       <c r="BN43" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BO43" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BP43" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BQ43" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BR43" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="BS43"/>
       <c r="BT43"/>
@@ -7526,13 +7423,13 @@
       <c r="BX43"/>
       <c r="BY43"/>
       <c r="BZ43" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CA43" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CB43" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="CC43"/>
       <c r="CD43"/>
@@ -7716,11 +7613,9 @@
         <v>414</v>
       </c>
       <c r="X45"/>
-      <c r="Y45" t="s">
-        <v>422</v>
-      </c>
+      <c r="Y45"/>
       <c r="Z45" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="AA45"/>
       <c r="AB45"/>
@@ -7733,10 +7628,10 @@
       </c>
       <c r="AH45"/>
       <c r="AI45" t="s">
-        <v>435</v>
+        <v>418</v>
       </c>
       <c r="AJ45" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="AK45"/>
       <c r="AL45"/>
@@ -7768,19 +7663,19 @@
       <c r="BL45"/>
       <c r="BM45"/>
       <c r="BN45" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BO45" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BP45" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BQ45" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BR45" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="BS45"/>
       <c r="BT45"/>
@@ -7790,13 +7685,13 @@
       <c r="BX45"/>
       <c r="BY45"/>
       <c r="BZ45" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CA45" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CB45" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="CC45"/>
       <c r="CD45"/>
@@ -7980,11 +7875,9 @@
         <v>414</v>
       </c>
       <c r="X47"/>
-      <c r="Y47" t="s">
-        <v>423</v>
-      </c>
+      <c r="Y47"/>
       <c r="Z47" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="AA47"/>
       <c r="AB47"/>
@@ -7997,10 +7890,10 @@
       </c>
       <c r="AH47"/>
       <c r="AI47" t="s">
-        <v>435</v>
+        <v>418</v>
       </c>
       <c r="AJ47" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="AK47"/>
       <c r="AL47"/>
@@ -8032,19 +7925,19 @@
       <c r="BL47"/>
       <c r="BM47"/>
       <c r="BN47" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BO47" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BP47" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BQ47" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BR47" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="BS47"/>
       <c r="BT47"/>
@@ -8054,13 +7947,13 @@
       <c r="BX47"/>
       <c r="BY47"/>
       <c r="BZ47" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CA47" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CB47" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="CC47"/>
       <c r="CD47"/>
@@ -8141,11 +8034,9 @@
         <v>414</v>
       </c>
       <c r="X48"/>
-      <c r="Y48" t="s">
-        <v>423</v>
-      </c>
+      <c r="Y48"/>
       <c r="Z48" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="AA48"/>
       <c r="AB48"/>
@@ -8158,10 +8049,10 @@
       </c>
       <c r="AH48"/>
       <c r="AI48" t="s">
-        <v>435</v>
+        <v>418</v>
       </c>
       <c r="AJ48" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="AK48"/>
       <c r="AL48"/>
@@ -8175,7 +8066,7 @@
       <c r="AT48"/>
       <c r="AU48"/>
       <c r="AV48" t="s">
-        <v>437</v>
+        <v>420</v>
       </c>
       <c r="AW48" t="s">
         <v>318</v>
@@ -8184,7 +8075,7 @@
       <c r="AY48"/>
       <c r="AZ48"/>
       <c r="BA48" t="s">
-        <v>438</v>
+        <v>421</v>
       </c>
       <c r="BB48"/>
       <c r="BC48"/>
@@ -8199,19 +8090,19 @@
       <c r="BL48"/>
       <c r="BM48"/>
       <c r="BN48" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BO48" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BP48" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BQ48" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BR48" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="BS48"/>
       <c r="BT48"/>
@@ -8221,13 +8112,13 @@
       <c r="BX48"/>
       <c r="BY48"/>
       <c r="BZ48" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CA48" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CB48" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="CC48"/>
       <c r="CD48"/>
@@ -8304,11 +8195,9 @@
         <v>414</v>
       </c>
       <c r="X49"/>
-      <c r="Y49" t="s">
-        <v>423</v>
-      </c>
+      <c r="Y49"/>
       <c r="Z49" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="AA49"/>
       <c r="AB49"/>
@@ -8321,10 +8210,10 @@
       </c>
       <c r="AH49"/>
       <c r="AI49" t="s">
-        <v>435</v>
+        <v>418</v>
       </c>
       <c r="AJ49" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="AK49"/>
       <c r="AL49"/>
@@ -8356,19 +8245,19 @@
       <c r="BL49"/>
       <c r="BM49"/>
       <c r="BN49" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BO49" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BP49" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BQ49" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BR49" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="BS49"/>
       <c r="BT49"/>
@@ -8378,13 +8267,13 @@
       <c r="BX49"/>
       <c r="BY49"/>
       <c r="BZ49" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CA49" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CB49" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="CC49"/>
       <c r="CD49"/>
@@ -8461,11 +8350,9 @@
         <v>415</v>
       </c>
       <c r="X50"/>
-      <c r="Y50" t="s">
-        <v>424</v>
-      </c>
+      <c r="Y50"/>
       <c r="Z50" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="AA50"/>
       <c r="AB50"/>
@@ -8478,10 +8365,10 @@
       </c>
       <c r="AH50"/>
       <c r="AI50" t="s">
-        <v>435</v>
+        <v>418</v>
       </c>
       <c r="AJ50" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="AK50"/>
       <c r="AL50"/>
@@ -8513,19 +8400,19 @@
       <c r="BL50"/>
       <c r="BM50"/>
       <c r="BN50" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BO50" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BP50" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BQ50" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BR50" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="BS50"/>
       <c r="BT50"/>
@@ -8535,13 +8422,13 @@
       <c r="BX50"/>
       <c r="BY50"/>
       <c r="BZ50" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CA50" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CB50" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="CC50"/>
       <c r="CD50"/>
@@ -8618,11 +8505,9 @@
         <v>414</v>
       </c>
       <c r="X51"/>
-      <c r="Y51" t="s">
-        <v>420</v>
-      </c>
+      <c r="Y51"/>
       <c r="Z51" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="AA51"/>
       <c r="AB51"/>
@@ -8635,10 +8520,10 @@
       </c>
       <c r="AH51"/>
       <c r="AI51" t="s">
-        <v>435</v>
+        <v>418</v>
       </c>
       <c r="AJ51" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="AK51"/>
       <c r="AL51"/>
@@ -8670,19 +8555,19 @@
       <c r="BL51"/>
       <c r="BM51"/>
       <c r="BN51" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BO51" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BP51" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BQ51" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BR51" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="BS51"/>
       <c r="BT51"/>
@@ -8692,13 +8577,13 @@
       <c r="BX51"/>
       <c r="BY51"/>
       <c r="BZ51" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CA51" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CB51" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="CC51"/>
       <c r="CD51"/>
@@ -8775,11 +8660,9 @@
         <v>414</v>
       </c>
       <c r="X52"/>
-      <c r="Y52" t="s">
-        <v>420</v>
-      </c>
+      <c r="Y52"/>
       <c r="Z52" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="AA52"/>
       <c r="AB52"/>
@@ -8792,10 +8675,10 @@
       </c>
       <c r="AH52"/>
       <c r="AI52" t="s">
-        <v>435</v>
+        <v>418</v>
       </c>
       <c r="AJ52" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="AK52"/>
       <c r="AL52"/>
@@ -8920,11 +8803,9 @@
         <v>416</v>
       </c>
       <c r="X53"/>
-      <c r="Y53" t="s">
-        <v>420</v>
-      </c>
+      <c r="Y53"/>
       <c r="Z53" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="AA53"/>
       <c r="AB53"/>
@@ -8937,10 +8818,10 @@
       </c>
       <c r="AH53"/>
       <c r="AI53" t="s">
-        <v>435</v>
+        <v>418</v>
       </c>
       <c r="AJ53" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="AK53"/>
       <c r="AL53"/>
@@ -8954,7 +8835,7 @@
       <c r="AT53"/>
       <c r="AU53"/>
       <c r="AV53" t="s">
-        <v>437</v>
+        <v>420</v>
       </c>
       <c r="AW53" t="s">
         <v>318</v>
@@ -8963,7 +8844,7 @@
       <c r="AY53"/>
       <c r="AZ53"/>
       <c r="BA53" t="s">
-        <v>438</v>
+        <v>421</v>
       </c>
       <c r="BB53"/>
       <c r="BC53"/>
@@ -9174,11 +9055,9 @@
         <v>318</v>
       </c>
       <c r="X55"/>
-      <c r="Y55" t="s">
-        <v>420</v>
-      </c>
+      <c r="Y55"/>
       <c r="Z55" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="AA55"/>
       <c r="AB55"/>
@@ -9191,10 +9070,10 @@
       </c>
       <c r="AH55"/>
       <c r="AI55" t="s">
-        <v>435</v>
+        <v>418</v>
       </c>
       <c r="AJ55" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="AK55"/>
       <c r="AL55"/>
@@ -9422,11 +9301,9 @@
         <v>414</v>
       </c>
       <c r="X57"/>
-      <c r="Y57" t="s">
-        <v>420</v>
-      </c>
+      <c r="Y57"/>
       <c r="Z57" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="AA57"/>
       <c r="AB57"/>
@@ -9670,11 +9547,9 @@
         <v>415</v>
       </c>
       <c r="X59"/>
-      <c r="Y59" t="s">
-        <v>425</v>
-      </c>
+      <c r="Y59"/>
       <c r="Z59" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="AA59"/>
       <c r="AB59"/>
@@ -9700,7 +9575,7 @@
       <c r="AT59"/>
       <c r="AU59"/>
       <c r="AV59" t="s">
-        <v>437</v>
+        <v>420</v>
       </c>
       <c r="AW59" t="s">
         <v>318</v>
@@ -9709,7 +9584,7 @@
       <c r="AY59"/>
       <c r="AZ59"/>
       <c r="BA59" t="s">
-        <v>438</v>
+        <v>421</v>
       </c>
       <c r="BB59"/>
       <c r="BC59"/>
@@ -9724,19 +9599,19 @@
       <c r="BL59"/>
       <c r="BM59"/>
       <c r="BN59" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BO59" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BP59" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BQ59" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BR59" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="BS59"/>
       <c r="BT59"/>
@@ -9746,13 +9621,13 @@
       <c r="BX59"/>
       <c r="BY59"/>
       <c r="BZ59" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CA59" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CB59" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="CC59"/>
       <c r="CD59"/>
@@ -9833,11 +9708,9 @@
         <v>415</v>
       </c>
       <c r="X60"/>
-      <c r="Y60" t="s">
-        <v>425</v>
-      </c>
+      <c r="Y60"/>
       <c r="Z60" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="AA60"/>
       <c r="AB60"/>
@@ -9863,7 +9736,7 @@
       <c r="AT60"/>
       <c r="AU60"/>
       <c r="AV60" t="s">
-        <v>437</v>
+        <v>420</v>
       </c>
       <c r="AW60" t="s">
         <v>318</v>
@@ -9872,7 +9745,7 @@
       <c r="AY60"/>
       <c r="AZ60"/>
       <c r="BA60" t="s">
-        <v>438</v>
+        <v>421</v>
       </c>
       <c r="BB60"/>
       <c r="BC60"/>
@@ -9887,19 +9760,19 @@
       <c r="BL60"/>
       <c r="BM60"/>
       <c r="BN60" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BO60" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BP60" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BQ60" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BR60" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="BS60"/>
       <c r="BT60"/>
@@ -9909,13 +9782,13 @@
       <c r="BX60"/>
       <c r="BY60"/>
       <c r="BZ60" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CA60" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CB60" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="CC60"/>
       <c r="CD60"/>
@@ -9996,11 +9869,9 @@
         <v>415</v>
       </c>
       <c r="X61"/>
-      <c r="Y61" t="s">
-        <v>425</v>
-      </c>
+      <c r="Y61"/>
       <c r="Z61" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="AA61"/>
       <c r="AB61"/>
@@ -10026,7 +9897,7 @@
       <c r="AT61"/>
       <c r="AU61"/>
       <c r="AV61" t="s">
-        <v>437</v>
+        <v>420</v>
       </c>
       <c r="AW61" t="s">
         <v>318</v>
@@ -10035,7 +9906,7 @@
       <c r="AY61"/>
       <c r="AZ61"/>
       <c r="BA61" t="s">
-        <v>438</v>
+        <v>421</v>
       </c>
       <c r="BB61"/>
       <c r="BC61"/>
@@ -10050,19 +9921,19 @@
       <c r="BL61"/>
       <c r="BM61"/>
       <c r="BN61" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BO61" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BP61" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BQ61" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BR61" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="BS61"/>
       <c r="BT61"/>
@@ -10072,13 +9943,13 @@
       <c r="BX61"/>
       <c r="BY61"/>
       <c r="BZ61" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CA61" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CB61" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="CC61"/>
       <c r="CD61"/>
@@ -10159,11 +10030,9 @@
         <v>415</v>
       </c>
       <c r="X62"/>
-      <c r="Y62" t="s">
-        <v>425</v>
-      </c>
+      <c r="Y62"/>
       <c r="Z62" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="AA62"/>
       <c r="AB62"/>
@@ -10189,7 +10058,7 @@
       <c r="AT62"/>
       <c r="AU62"/>
       <c r="AV62" t="s">
-        <v>437</v>
+        <v>420</v>
       </c>
       <c r="AW62" t="s">
         <v>318</v>
@@ -10198,7 +10067,7 @@
       <c r="AY62"/>
       <c r="AZ62"/>
       <c r="BA62" t="s">
-        <v>438</v>
+        <v>421</v>
       </c>
       <c r="BB62"/>
       <c r="BC62"/>
@@ -10213,19 +10082,19 @@
       <c r="BL62"/>
       <c r="BM62"/>
       <c r="BN62" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BO62" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BP62" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BQ62" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BR62" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="BS62"/>
       <c r="BT62"/>
@@ -10235,13 +10104,13 @@
       <c r="BX62"/>
       <c r="BY62"/>
       <c r="BZ62" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CA62" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CB62" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="CC62"/>
       <c r="CD62"/>
@@ -10322,11 +10191,9 @@
         <v>415</v>
       </c>
       <c r="X63"/>
-      <c r="Y63" t="s">
-        <v>425</v>
-      </c>
+      <c r="Y63"/>
       <c r="Z63" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="AA63"/>
       <c r="AB63"/>
@@ -10352,7 +10219,7 @@
       <c r="AT63"/>
       <c r="AU63"/>
       <c r="AV63" t="s">
-        <v>437</v>
+        <v>420</v>
       </c>
       <c r="AW63" t="s">
         <v>318</v>
@@ -10361,7 +10228,7 @@
       <c r="AY63"/>
       <c r="AZ63"/>
       <c r="BA63" t="s">
-        <v>438</v>
+        <v>421</v>
       </c>
       <c r="BB63"/>
       <c r="BC63"/>
@@ -10376,19 +10243,19 @@
       <c r="BL63"/>
       <c r="BM63"/>
       <c r="BN63" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BO63" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BP63" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BQ63" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BR63" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="BS63"/>
       <c r="BT63"/>
@@ -10398,13 +10265,13 @@
       <c r="BX63"/>
       <c r="BY63"/>
       <c r="BZ63" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CA63" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CB63" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="CC63"/>
       <c r="CD63"/>
@@ -10485,11 +10352,9 @@
         <v>415</v>
       </c>
       <c r="X64"/>
-      <c r="Y64" t="s">
-        <v>425</v>
-      </c>
+      <c r="Y64"/>
       <c r="Z64" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="AA64"/>
       <c r="AB64"/>
@@ -10515,7 +10380,7 @@
       <c r="AT64"/>
       <c r="AU64"/>
       <c r="AV64" t="s">
-        <v>437</v>
+        <v>420</v>
       </c>
       <c r="AW64" t="s">
         <v>318</v>
@@ -10524,7 +10389,7 @@
       <c r="AY64"/>
       <c r="AZ64"/>
       <c r="BA64" t="s">
-        <v>438</v>
+        <v>421</v>
       </c>
       <c r="BB64"/>
       <c r="BC64"/>
@@ -10539,19 +10404,19 @@
       <c r="BL64"/>
       <c r="BM64"/>
       <c r="BN64" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BO64" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BP64" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BQ64" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BR64" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="BS64"/>
       <c r="BT64"/>
@@ -10561,13 +10426,13 @@
       <c r="BX64"/>
       <c r="BY64"/>
       <c r="BZ64" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CA64" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CB64" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="CC64"/>
       <c r="CD64"/>
@@ -10648,11 +10513,9 @@
         <v>415</v>
       </c>
       <c r="X65"/>
-      <c r="Y65" t="s">
-        <v>425</v>
-      </c>
+      <c r="Y65"/>
       <c r="Z65" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="AA65"/>
       <c r="AB65"/>
@@ -10678,7 +10541,7 @@
       <c r="AT65"/>
       <c r="AU65"/>
       <c r="AV65" t="s">
-        <v>437</v>
+        <v>420</v>
       </c>
       <c r="AW65" t="s">
         <v>318</v>
@@ -10687,7 +10550,7 @@
       <c r="AY65"/>
       <c r="AZ65"/>
       <c r="BA65" t="s">
-        <v>438</v>
+        <v>421</v>
       </c>
       <c r="BB65"/>
       <c r="BC65"/>
@@ -10702,19 +10565,19 @@
       <c r="BL65"/>
       <c r="BM65"/>
       <c r="BN65" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BO65" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BP65" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BQ65" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BR65" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="BS65"/>
       <c r="BT65"/>
@@ -10724,13 +10587,13 @@
       <c r="BX65"/>
       <c r="BY65"/>
       <c r="BZ65" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CA65" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CB65" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="CC65"/>
       <c r="CD65"/>
@@ -10811,11 +10674,9 @@
         <v>415</v>
       </c>
       <c r="X66"/>
-      <c r="Y66" t="s">
-        <v>425</v>
-      </c>
+      <c r="Y66"/>
       <c r="Z66" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="AA66"/>
       <c r="AB66"/>
@@ -10841,7 +10702,7 @@
       <c r="AT66"/>
       <c r="AU66"/>
       <c r="AV66" t="s">
-        <v>437</v>
+        <v>420</v>
       </c>
       <c r="AW66" t="s">
         <v>318</v>
@@ -10850,7 +10711,7 @@
       <c r="AY66"/>
       <c r="AZ66"/>
       <c r="BA66" t="s">
-        <v>438</v>
+        <v>421</v>
       </c>
       <c r="BB66"/>
       <c r="BC66"/>
@@ -10865,19 +10726,19 @@
       <c r="BL66"/>
       <c r="BM66"/>
       <c r="BN66" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BO66" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BP66" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BQ66" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BR66" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="BS66"/>
       <c r="BT66"/>
@@ -10887,13 +10748,13 @@
       <c r="BX66"/>
       <c r="BY66"/>
       <c r="BZ66" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CA66" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CB66" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="CC66"/>
       <c r="CD66"/>
@@ -10974,11 +10835,9 @@
         <v>415</v>
       </c>
       <c r="X67"/>
-      <c r="Y67" t="s">
-        <v>426</v>
-      </c>
+      <c r="Y67"/>
       <c r="Z67" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="AA67"/>
       <c r="AB67"/>
@@ -11004,7 +10863,7 @@
       <c r="AT67"/>
       <c r="AU67"/>
       <c r="AV67" t="s">
-        <v>437</v>
+        <v>420</v>
       </c>
       <c r="AW67" t="s">
         <v>318</v>
@@ -11013,7 +10872,7 @@
       <c r="AY67"/>
       <c r="AZ67"/>
       <c r="BA67" t="s">
-        <v>438</v>
+        <v>421</v>
       </c>
       <c r="BB67"/>
       <c r="BC67"/>
@@ -11028,19 +10887,19 @@
       <c r="BL67"/>
       <c r="BM67"/>
       <c r="BN67" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BO67" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BP67" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BQ67" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BR67" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="BS67"/>
       <c r="BT67"/>
@@ -11050,13 +10909,13 @@
       <c r="BX67"/>
       <c r="BY67"/>
       <c r="BZ67" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CA67" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CB67" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="CC67"/>
       <c r="CD67"/>
@@ -11137,11 +10996,9 @@
         <v>415</v>
       </c>
       <c r="X68"/>
-      <c r="Y68" t="s">
-        <v>425</v>
-      </c>
+      <c r="Y68"/>
       <c r="Z68" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="AA68"/>
       <c r="AB68"/>
@@ -11167,7 +11024,7 @@
       <c r="AT68"/>
       <c r="AU68"/>
       <c r="AV68" t="s">
-        <v>437</v>
+        <v>420</v>
       </c>
       <c r="AW68" t="s">
         <v>318</v>
@@ -11176,7 +11033,7 @@
       <c r="AY68"/>
       <c r="AZ68"/>
       <c r="BA68" t="s">
-        <v>438</v>
+        <v>421</v>
       </c>
       <c r="BB68"/>
       <c r="BC68"/>
@@ -11191,19 +11048,19 @@
       <c r="BL68"/>
       <c r="BM68"/>
       <c r="BN68" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BO68" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BP68" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BQ68" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BR68" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="BS68"/>
       <c r="BT68"/>
@@ -11213,13 +11070,13 @@
       <c r="BX68"/>
       <c r="BY68"/>
       <c r="BZ68" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CA68" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CB68" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="CC68"/>
       <c r="CD68"/>
@@ -11300,11 +11157,9 @@
         <v>415</v>
       </c>
       <c r="X69"/>
-      <c r="Y69" t="s">
-        <v>425</v>
-      </c>
+      <c r="Y69"/>
       <c r="Z69" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="AA69"/>
       <c r="AB69"/>
@@ -11330,7 +11185,7 @@
       <c r="AT69"/>
       <c r="AU69"/>
       <c r="AV69" t="s">
-        <v>437</v>
+        <v>420</v>
       </c>
       <c r="AW69" t="s">
         <v>318</v>
@@ -11339,7 +11194,7 @@
       <c r="AY69"/>
       <c r="AZ69"/>
       <c r="BA69" t="s">
-        <v>438</v>
+        <v>421</v>
       </c>
       <c r="BB69"/>
       <c r="BC69"/>
@@ -11354,19 +11209,19 @@
       <c r="BL69"/>
       <c r="BM69"/>
       <c r="BN69" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BO69" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BP69" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BQ69" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BR69" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="BS69"/>
       <c r="BT69"/>
@@ -11376,13 +11231,13 @@
       <c r="BX69"/>
       <c r="BY69"/>
       <c r="BZ69" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CA69" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CB69" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="CC69"/>
       <c r="CD69"/>
@@ -11463,11 +11318,9 @@
         <v>415</v>
       </c>
       <c r="X70"/>
-      <c r="Y70" t="s">
-        <v>425</v>
-      </c>
+      <c r="Y70"/>
       <c r="Z70" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="AA70"/>
       <c r="AB70"/>
@@ -11493,7 +11346,7 @@
       <c r="AT70"/>
       <c r="AU70"/>
       <c r="AV70" t="s">
-        <v>437</v>
+        <v>420</v>
       </c>
       <c r="AW70" t="s">
         <v>318</v>
@@ -11502,7 +11355,7 @@
       <c r="AY70"/>
       <c r="AZ70"/>
       <c r="BA70" t="s">
-        <v>438</v>
+        <v>421</v>
       </c>
       <c r="BB70"/>
       <c r="BC70"/>
@@ -11517,19 +11370,19 @@
       <c r="BL70"/>
       <c r="BM70"/>
       <c r="BN70" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BO70" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BP70" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BQ70" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BR70" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="BS70"/>
       <c r="BT70"/>
@@ -11539,13 +11392,13 @@
       <c r="BX70"/>
       <c r="BY70"/>
       <c r="BZ70" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CA70" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CB70" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="CC70"/>
       <c r="CD70"/>
@@ -11626,11 +11479,9 @@
         <v>415</v>
       </c>
       <c r="X71"/>
-      <c r="Y71" t="s">
-        <v>427</v>
-      </c>
+      <c r="Y71"/>
       <c r="Z71" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="AA71"/>
       <c r="AB71"/>
@@ -11656,7 +11507,7 @@
       <c r="AT71"/>
       <c r="AU71"/>
       <c r="AV71" t="s">
-        <v>437</v>
+        <v>420</v>
       </c>
       <c r="AW71" t="s">
         <v>318</v>
@@ -11665,7 +11516,7 @@
       <c r="AY71"/>
       <c r="AZ71"/>
       <c r="BA71" t="s">
-        <v>438</v>
+        <v>421</v>
       </c>
       <c r="BB71"/>
       <c r="BC71"/>
@@ -11680,19 +11531,19 @@
       <c r="BL71"/>
       <c r="BM71"/>
       <c r="BN71" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BO71" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BP71" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BQ71" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BR71" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="BS71"/>
       <c r="BT71"/>
@@ -11702,13 +11553,13 @@
       <c r="BX71"/>
       <c r="BY71"/>
       <c r="BZ71" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CA71" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CB71" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="CC71"/>
       <c r="CD71"/>
@@ -11789,11 +11640,9 @@
         <v>415</v>
       </c>
       <c r="X72"/>
-      <c r="Y72" t="s">
-        <v>428</v>
-      </c>
+      <c r="Y72"/>
       <c r="Z72" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="AA72"/>
       <c r="AB72"/>
@@ -11819,7 +11668,7 @@
       <c r="AT72"/>
       <c r="AU72"/>
       <c r="AV72" t="s">
-        <v>437</v>
+        <v>420</v>
       </c>
       <c r="AW72" t="s">
         <v>318</v>
@@ -11828,7 +11677,7 @@
       <c r="AY72"/>
       <c r="AZ72"/>
       <c r="BA72" t="s">
-        <v>438</v>
+        <v>421</v>
       </c>
       <c r="BB72"/>
       <c r="BC72"/>
@@ -11843,19 +11692,19 @@
       <c r="BL72"/>
       <c r="BM72"/>
       <c r="BN72" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BO72" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BP72" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BQ72" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BR72" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="BS72"/>
       <c r="BT72"/>
@@ -11865,13 +11714,13 @@
       <c r="BX72"/>
       <c r="BY72"/>
       <c r="BZ72" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CA72" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CB72" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="CC72"/>
       <c r="CD72"/>
@@ -11952,11 +11801,9 @@
         <v>415</v>
       </c>
       <c r="X73"/>
-      <c r="Y73" t="s">
-        <v>428</v>
-      </c>
+      <c r="Y73"/>
       <c r="Z73" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="AA73"/>
       <c r="AB73"/>
@@ -11982,7 +11829,7 @@
       <c r="AT73"/>
       <c r="AU73"/>
       <c r="AV73" t="s">
-        <v>437</v>
+        <v>420</v>
       </c>
       <c r="AW73" t="s">
         <v>318</v>
@@ -11991,7 +11838,7 @@
       <c r="AY73"/>
       <c r="AZ73"/>
       <c r="BA73" t="s">
-        <v>438</v>
+        <v>421</v>
       </c>
       <c r="BB73"/>
       <c r="BC73"/>
@@ -12006,19 +11853,19 @@
       <c r="BL73"/>
       <c r="BM73"/>
       <c r="BN73" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BO73" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BP73" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BQ73" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BR73" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="BS73"/>
       <c r="BT73"/>
@@ -12028,13 +11875,13 @@
       <c r="BX73"/>
       <c r="BY73"/>
       <c r="BZ73" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CA73" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CB73" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="CC73"/>
       <c r="CD73"/>
@@ -12115,11 +11962,9 @@
         <v>415</v>
       </c>
       <c r="X74"/>
-      <c r="Y74" t="s">
-        <v>428</v>
-      </c>
+      <c r="Y74"/>
       <c r="Z74" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="AA74"/>
       <c r="AB74"/>
@@ -12145,7 +11990,7 @@
       <c r="AT74"/>
       <c r="AU74"/>
       <c r="AV74" t="s">
-        <v>437</v>
+        <v>420</v>
       </c>
       <c r="AW74" t="s">
         <v>318</v>
@@ -12154,7 +11999,7 @@
       <c r="AY74"/>
       <c r="AZ74"/>
       <c r="BA74" t="s">
-        <v>438</v>
+        <v>421</v>
       </c>
       <c r="BB74"/>
       <c r="BC74"/>
@@ -12169,19 +12014,19 @@
       <c r="BL74"/>
       <c r="BM74"/>
       <c r="BN74" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BO74" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BP74" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BQ74" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BR74" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="BS74"/>
       <c r="BT74"/>
@@ -12191,13 +12036,13 @@
       <c r="BX74"/>
       <c r="BY74"/>
       <c r="BZ74" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CA74" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CB74" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="CC74"/>
       <c r="CD74"/>
@@ -12278,11 +12123,9 @@
         <v>415</v>
       </c>
       <c r="X75"/>
-      <c r="Y75" t="s">
-        <v>425</v>
-      </c>
+      <c r="Y75"/>
       <c r="Z75" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="AA75"/>
       <c r="AB75"/>
@@ -12308,7 +12151,7 @@
       <c r="AT75"/>
       <c r="AU75"/>
       <c r="AV75" t="s">
-        <v>437</v>
+        <v>420</v>
       </c>
       <c r="AW75" t="s">
         <v>318</v>
@@ -12317,7 +12160,7 @@
       <c r="AY75"/>
       <c r="AZ75"/>
       <c r="BA75" t="s">
-        <v>438</v>
+        <v>421</v>
       </c>
       <c r="BB75"/>
       <c r="BC75"/>
@@ -12332,19 +12175,19 @@
       <c r="BL75"/>
       <c r="BM75"/>
       <c r="BN75" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BO75" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BP75" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BQ75" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BR75" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="BS75"/>
       <c r="BT75"/>
@@ -12354,13 +12197,13 @@
       <c r="BX75"/>
       <c r="BY75"/>
       <c r="BZ75" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CA75" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CB75" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="CC75"/>
       <c r="CD75"/>
@@ -12441,11 +12284,9 @@
         <v>415</v>
       </c>
       <c r="X76"/>
-      <c r="Y76" t="s">
-        <v>428</v>
-      </c>
+      <c r="Y76"/>
       <c r="Z76" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="AA76"/>
       <c r="AB76"/>
@@ -12471,7 +12312,7 @@
       <c r="AT76"/>
       <c r="AU76"/>
       <c r="AV76" t="s">
-        <v>437</v>
+        <v>420</v>
       </c>
       <c r="AW76" t="s">
         <v>318</v>
@@ -12480,7 +12321,7 @@
       <c r="AY76"/>
       <c r="AZ76"/>
       <c r="BA76" t="s">
-        <v>438</v>
+        <v>421</v>
       </c>
       <c r="BB76"/>
       <c r="BC76"/>
@@ -12495,19 +12336,19 @@
       <c r="BL76"/>
       <c r="BM76"/>
       <c r="BN76" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BO76" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BP76" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BQ76" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BR76" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="BS76"/>
       <c r="BT76"/>
@@ -12517,13 +12358,13 @@
       <c r="BX76"/>
       <c r="BY76"/>
       <c r="BZ76" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CA76" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CB76" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="CC76"/>
       <c r="CD76"/>
@@ -12604,11 +12445,9 @@
         <v>415</v>
       </c>
       <c r="X77"/>
-      <c r="Y77" t="s">
-        <v>425</v>
-      </c>
+      <c r="Y77"/>
       <c r="Z77" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="AA77"/>
       <c r="AB77"/>
@@ -12634,7 +12473,7 @@
       <c r="AT77"/>
       <c r="AU77"/>
       <c r="AV77" t="s">
-        <v>437</v>
+        <v>420</v>
       </c>
       <c r="AW77" t="s">
         <v>318</v>
@@ -12643,7 +12482,7 @@
       <c r="AY77"/>
       <c r="AZ77"/>
       <c r="BA77" t="s">
-        <v>438</v>
+        <v>421</v>
       </c>
       <c r="BB77"/>
       <c r="BC77"/>
@@ -12658,19 +12497,19 @@
       <c r="BL77"/>
       <c r="BM77"/>
       <c r="BN77" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BO77" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BP77" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BQ77" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BR77" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="BS77"/>
       <c r="BT77"/>
@@ -12680,13 +12519,13 @@
       <c r="BX77"/>
       <c r="BY77"/>
       <c r="BZ77" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CA77" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CB77" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="CC77"/>
       <c r="CD77"/>
@@ -12767,11 +12606,9 @@
         <v>415</v>
       </c>
       <c r="X78"/>
-      <c r="Y78" t="s">
-        <v>425</v>
-      </c>
+      <c r="Y78"/>
       <c r="Z78" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="AA78"/>
       <c r="AB78"/>
@@ -12797,7 +12634,7 @@
       <c r="AT78"/>
       <c r="AU78"/>
       <c r="AV78" t="s">
-        <v>437</v>
+        <v>420</v>
       </c>
       <c r="AW78" t="s">
         <v>318</v>
@@ -12806,7 +12643,7 @@
       <c r="AY78"/>
       <c r="AZ78"/>
       <c r="BA78" t="s">
-        <v>438</v>
+        <v>421</v>
       </c>
       <c r="BB78"/>
       <c r="BC78"/>
@@ -12821,19 +12658,19 @@
       <c r="BL78"/>
       <c r="BM78"/>
       <c r="BN78" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BO78" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BP78" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BQ78" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BR78" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="BS78"/>
       <c r="BT78"/>
@@ -12843,13 +12680,13 @@
       <c r="BX78"/>
       <c r="BY78"/>
       <c r="BZ78" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CA78" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CB78" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="CC78"/>
       <c r="CD78"/>
@@ -12930,11 +12767,9 @@
         <v>415</v>
       </c>
       <c r="X79"/>
-      <c r="Y79" t="s">
-        <v>425</v>
-      </c>
+      <c r="Y79"/>
       <c r="Z79" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="AA79"/>
       <c r="AB79"/>
@@ -12960,7 +12795,7 @@
       <c r="AT79"/>
       <c r="AU79"/>
       <c r="AV79" t="s">
-        <v>437</v>
+        <v>420</v>
       </c>
       <c r="AW79" t="s">
         <v>318</v>
@@ -12969,7 +12804,7 @@
       <c r="AY79"/>
       <c r="AZ79"/>
       <c r="BA79" t="s">
-        <v>438</v>
+        <v>421</v>
       </c>
       <c r="BB79"/>
       <c r="BC79"/>
@@ -12984,19 +12819,19 @@
       <c r="BL79"/>
       <c r="BM79"/>
       <c r="BN79" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BO79" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BP79" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BQ79" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BR79" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="BS79"/>
       <c r="BT79"/>
@@ -13006,13 +12841,13 @@
       <c r="BX79"/>
       <c r="BY79"/>
       <c r="BZ79" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CA79" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CB79" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="CC79"/>
       <c r="CD79"/>
@@ -13093,11 +12928,9 @@
         <v>415</v>
       </c>
       <c r="X80"/>
-      <c r="Y80" t="s">
-        <v>425</v>
-      </c>
+      <c r="Y80"/>
       <c r="Z80" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="AA80"/>
       <c r="AB80"/>
@@ -13123,7 +12956,7 @@
       <c r="AT80"/>
       <c r="AU80"/>
       <c r="AV80" t="s">
-        <v>437</v>
+        <v>420</v>
       </c>
       <c r="AW80" t="s">
         <v>318</v>
@@ -13132,7 +12965,7 @@
       <c r="AY80"/>
       <c r="AZ80"/>
       <c r="BA80" t="s">
-        <v>438</v>
+        <v>421</v>
       </c>
       <c r="BB80"/>
       <c r="BC80"/>
@@ -13147,19 +12980,19 @@
       <c r="BL80"/>
       <c r="BM80"/>
       <c r="BN80" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BO80" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BP80" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BQ80" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BR80" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="BS80"/>
       <c r="BT80"/>
@@ -13169,13 +13002,13 @@
       <c r="BX80"/>
       <c r="BY80"/>
       <c r="BZ80" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CA80" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CB80" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="CC80"/>
       <c r="CD80"/>
@@ -13256,11 +13089,9 @@
         <v>415</v>
       </c>
       <c r="X81"/>
-      <c r="Y81" t="s">
-        <v>425</v>
-      </c>
+      <c r="Y81"/>
       <c r="Z81" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="AA81"/>
       <c r="AB81"/>
@@ -13286,7 +13117,7 @@
       <c r="AT81"/>
       <c r="AU81"/>
       <c r="AV81" t="s">
-        <v>437</v>
+        <v>420</v>
       </c>
       <c r="AW81" t="s">
         <v>318</v>
@@ -13295,7 +13126,7 @@
       <c r="AY81"/>
       <c r="AZ81"/>
       <c r="BA81" t="s">
-        <v>438</v>
+        <v>421</v>
       </c>
       <c r="BB81"/>
       <c r="BC81"/>
@@ -13310,19 +13141,19 @@
       <c r="BL81"/>
       <c r="BM81"/>
       <c r="BN81" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BO81" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BP81" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BQ81" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BR81" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="BS81"/>
       <c r="BT81"/>
@@ -13332,13 +13163,13 @@
       <c r="BX81"/>
       <c r="BY81"/>
       <c r="BZ81" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CA81" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CB81" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="CC81"/>
       <c r="CD81"/>
@@ -13419,11 +13250,9 @@
         <v>415</v>
       </c>
       <c r="X82"/>
-      <c r="Y82" t="s">
-        <v>425</v>
-      </c>
+      <c r="Y82"/>
       <c r="Z82" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="AA82"/>
       <c r="AB82"/>
@@ -13449,7 +13278,7 @@
       <c r="AT82"/>
       <c r="AU82"/>
       <c r="AV82" t="s">
-        <v>437</v>
+        <v>420</v>
       </c>
       <c r="AW82" t="s">
         <v>318</v>
@@ -13458,7 +13287,7 @@
       <c r="AY82"/>
       <c r="AZ82"/>
       <c r="BA82" t="s">
-        <v>438</v>
+        <v>421</v>
       </c>
       <c r="BB82"/>
       <c r="BC82"/>
@@ -13473,19 +13302,19 @@
       <c r="BL82"/>
       <c r="BM82"/>
       <c r="BN82" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BO82" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BP82" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BQ82" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BR82" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="BS82"/>
       <c r="BT82"/>
@@ -13495,13 +13324,13 @@
       <c r="BX82"/>
       <c r="BY82"/>
       <c r="BZ82" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CA82" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CB82" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="CC82"/>
       <c r="CD82"/>
@@ -13582,11 +13411,9 @@
         <v>415</v>
       </c>
       <c r="X83"/>
-      <c r="Y83" t="s">
-        <v>425</v>
-      </c>
+      <c r="Y83"/>
       <c r="Z83" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="AA83"/>
       <c r="AB83"/>
@@ -13612,7 +13439,7 @@
       <c r="AT83"/>
       <c r="AU83"/>
       <c r="AV83" t="s">
-        <v>437</v>
+        <v>420</v>
       </c>
       <c r="AW83" t="s">
         <v>318</v>
@@ -13621,7 +13448,7 @@
       <c r="AY83"/>
       <c r="AZ83"/>
       <c r="BA83" t="s">
-        <v>438</v>
+        <v>421</v>
       </c>
       <c r="BB83"/>
       <c r="BC83"/>
@@ -13636,19 +13463,19 @@
       <c r="BL83"/>
       <c r="BM83"/>
       <c r="BN83" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BO83" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BP83" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BQ83" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BR83" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="BS83"/>
       <c r="BT83"/>
@@ -13658,13 +13485,13 @@
       <c r="BX83"/>
       <c r="BY83"/>
       <c r="BZ83" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CA83" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CB83" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="CC83"/>
       <c r="CD83"/>
@@ -13741,11 +13568,9 @@
         <v>318</v>
       </c>
       <c r="X84"/>
-      <c r="Y84" t="s">
-        <v>429</v>
-      </c>
+      <c r="Y84"/>
       <c r="Z84" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="AA84"/>
       <c r="AB84"/>
@@ -13758,10 +13583,10 @@
       </c>
       <c r="AH84"/>
       <c r="AI84" t="s">
-        <v>435</v>
+        <v>418</v>
       </c>
       <c r="AJ84" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="AK84"/>
       <c r="AL84"/>
@@ -13886,11 +13711,9 @@
         <v>415</v>
       </c>
       <c r="X85"/>
-      <c r="Y85" t="s">
-        <v>423</v>
-      </c>
+      <c r="Y85"/>
       <c r="Z85" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="AA85"/>
       <c r="AB85"/>
@@ -13916,7 +13739,7 @@
       <c r="AT85"/>
       <c r="AU85"/>
       <c r="AV85" t="s">
-        <v>437</v>
+        <v>420</v>
       </c>
       <c r="AW85" t="s">
         <v>318</v>
@@ -13925,7 +13748,7 @@
       <c r="AY85"/>
       <c r="AZ85"/>
       <c r="BA85" t="s">
-        <v>438</v>
+        <v>421</v>
       </c>
       <c r="BB85"/>
       <c r="BC85"/>
@@ -13940,19 +13763,19 @@
       <c r="BL85"/>
       <c r="BM85"/>
       <c r="BN85" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BO85" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BP85" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BQ85" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BR85" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="BS85"/>
       <c r="BT85"/>
@@ -13962,13 +13785,13 @@
       <c r="BX85"/>
       <c r="BY85"/>
       <c r="BZ85" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CA85" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CB85" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="CC85"/>
       <c r="CD85"/>
@@ -14045,11 +13868,9 @@
         <v>414</v>
       </c>
       <c r="X86"/>
-      <c r="Y86" t="s">
-        <v>423</v>
-      </c>
+      <c r="Y86"/>
       <c r="Z86" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="AA86"/>
       <c r="AB86"/>
@@ -14062,10 +13883,10 @@
       </c>
       <c r="AH86"/>
       <c r="AI86" t="s">
-        <v>435</v>
+        <v>418</v>
       </c>
       <c r="AJ86" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="AK86"/>
       <c r="AL86"/>
@@ -14097,19 +13918,19 @@
       <c r="BL86"/>
       <c r="BM86"/>
       <c r="BN86" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BO86" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BP86" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BQ86" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BR86" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="BS86"/>
       <c r="BT86"/>
@@ -14119,13 +13940,13 @@
       <c r="BX86"/>
       <c r="BY86"/>
       <c r="BZ86" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CA86" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CB86" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="CC86"/>
       <c r="CD86"/>
@@ -14202,11 +14023,9 @@
         <v>415</v>
       </c>
       <c r="X87"/>
-      <c r="Y87" t="s">
-        <v>430</v>
-      </c>
+      <c r="Y87"/>
       <c r="Z87" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="AA87"/>
       <c r="AB87"/>
@@ -14219,10 +14038,10 @@
       </c>
       <c r="AH87"/>
       <c r="AI87" t="s">
-        <v>435</v>
+        <v>418</v>
       </c>
       <c r="AJ87" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="AK87"/>
       <c r="AL87"/>
@@ -14254,19 +14073,19 @@
       <c r="BL87"/>
       <c r="BM87"/>
       <c r="BN87" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BO87" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BP87" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BQ87" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BR87" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="BS87"/>
       <c r="BT87"/>
@@ -14276,13 +14095,13 @@
       <c r="BX87"/>
       <c r="BY87"/>
       <c r="BZ87" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CA87" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CB87" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="CC87"/>
       <c r="CD87"/>
@@ -14466,11 +14285,9 @@
         <v>415</v>
       </c>
       <c r="X89"/>
-      <c r="Y89" t="s">
-        <v>429</v>
-      </c>
+      <c r="Y89"/>
       <c r="Z89" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="AA89"/>
       <c r="AB89"/>
@@ -14483,10 +14300,10 @@
       </c>
       <c r="AH89"/>
       <c r="AI89" t="s">
-        <v>435</v>
+        <v>418</v>
       </c>
       <c r="AJ89" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="AK89"/>
       <c r="AL89"/>
@@ -14518,19 +14335,19 @@
       <c r="BL89"/>
       <c r="BM89"/>
       <c r="BN89" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BO89" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BP89" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BQ89" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BR89" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="BS89"/>
       <c r="BT89"/>
@@ -14540,13 +14357,13 @@
       <c r="BX89"/>
       <c r="BY89"/>
       <c r="BZ89" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CA89" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CB89" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="CC89"/>
       <c r="CD89"/>
@@ -14730,11 +14547,9 @@
         <v>414</v>
       </c>
       <c r="X91"/>
-      <c r="Y91" t="s">
-        <v>430</v>
-      </c>
+      <c r="Y91"/>
       <c r="Z91" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="AA91"/>
       <c r="AB91"/>
@@ -14747,10 +14562,10 @@
       </c>
       <c r="AH91"/>
       <c r="AI91" t="s">
-        <v>435</v>
+        <v>418</v>
       </c>
       <c r="AJ91" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="AK91"/>
       <c r="AL91"/>
@@ -14782,19 +14597,19 @@
       <c r="BL91"/>
       <c r="BM91"/>
       <c r="BN91" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BO91" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BP91" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BQ91" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BR91" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="BS91"/>
       <c r="BT91"/>
@@ -14804,13 +14619,13 @@
       <c r="BX91"/>
       <c r="BY91"/>
       <c r="BZ91" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CA91" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CB91" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="CC91"/>
       <c r="CD91"/>
@@ -14887,11 +14702,9 @@
         <v>414</v>
       </c>
       <c r="X92"/>
-      <c r="Y92" t="s">
-        <v>431</v>
-      </c>
+      <c r="Y92"/>
       <c r="Z92" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="AA92"/>
       <c r="AB92"/>
@@ -14904,10 +14717,10 @@
       </c>
       <c r="AH92"/>
       <c r="AI92" t="s">
-        <v>435</v>
+        <v>418</v>
       </c>
       <c r="AJ92" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="AK92"/>
       <c r="AL92"/>
@@ -14939,19 +14752,19 @@
       <c r="BL92"/>
       <c r="BM92"/>
       <c r="BN92" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BO92" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BP92" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BQ92" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BR92" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="BS92"/>
       <c r="BT92"/>
@@ -14961,13 +14774,13 @@
       <c r="BX92"/>
       <c r="BY92"/>
       <c r="BZ92" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CA92" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CB92" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="CC92"/>
       <c r="CD92"/>
@@ -15044,11 +14857,9 @@
         <v>414</v>
       </c>
       <c r="X93"/>
-      <c r="Y93" t="s">
-        <v>431</v>
-      </c>
+      <c r="Y93"/>
       <c r="Z93" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="AA93"/>
       <c r="AB93"/>
@@ -15061,10 +14872,10 @@
       </c>
       <c r="AH93"/>
       <c r="AI93" t="s">
-        <v>435</v>
+        <v>418</v>
       </c>
       <c r="AJ93" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="AK93"/>
       <c r="AL93"/>
@@ -15185,11 +14996,9 @@
         <v>415</v>
       </c>
       <c r="X94"/>
-      <c r="Y94" t="s">
-        <v>431</v>
-      </c>
+      <c r="Y94"/>
       <c r="Z94" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="AA94"/>
       <c r="AB94"/>
@@ -15202,10 +15011,10 @@
       </c>
       <c r="AH94"/>
       <c r="AI94" t="s">
-        <v>435</v>
+        <v>418</v>
       </c>
       <c r="AJ94" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="AK94"/>
       <c r="AL94"/>
@@ -15237,19 +15046,19 @@
       <c r="BL94"/>
       <c r="BM94"/>
       <c r="BN94" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BO94" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BP94" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BQ94" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BR94" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="BS94"/>
       <c r="BT94"/>
@@ -15259,13 +15068,13 @@
       <c r="BX94"/>
       <c r="BY94"/>
       <c r="BZ94" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CA94" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CB94" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="CC94"/>
       <c r="CD94"/>
@@ -15342,11 +15151,9 @@
         <v>414</v>
       </c>
       <c r="X95"/>
-      <c r="Y95" t="s">
-        <v>430</v>
-      </c>
+      <c r="Y95"/>
       <c r="Z95" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="AA95"/>
       <c r="AB95"/>
@@ -15359,10 +15166,10 @@
       </c>
       <c r="AH95"/>
       <c r="AI95" t="s">
-        <v>435</v>
+        <v>418</v>
       </c>
       <c r="AJ95" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="AK95"/>
       <c r="AL95"/>
@@ -15394,19 +15201,19 @@
       <c r="BL95"/>
       <c r="BM95"/>
       <c r="BN95" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BO95" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BP95" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BQ95" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BR95" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="BS95"/>
       <c r="BT95"/>
@@ -15416,13 +15223,13 @@
       <c r="BX95"/>
       <c r="BY95"/>
       <c r="BZ95" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CA95" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CB95" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="CC95"/>
       <c r="CD95"/>
@@ -15606,11 +15413,9 @@
         <v>414</v>
       </c>
       <c r="X97"/>
-      <c r="Y97" t="s">
-        <v>430</v>
-      </c>
+      <c r="Y97"/>
       <c r="Z97" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="AA97"/>
       <c r="AB97"/>
@@ -15623,10 +15428,10 @@
       </c>
       <c r="AH97"/>
       <c r="AI97" t="s">
-        <v>435</v>
+        <v>418</v>
       </c>
       <c r="AJ97" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="AK97"/>
       <c r="AL97"/>
@@ -15854,11 +15659,9 @@
         <v>416</v>
       </c>
       <c r="X99"/>
-      <c r="Y99" t="s">
-        <v>430</v>
-      </c>
+      <c r="Y99"/>
       <c r="Z99" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="AA99"/>
       <c r="AB99"/>
@@ -15871,10 +15674,10 @@
       </c>
       <c r="AH99"/>
       <c r="AI99" t="s">
-        <v>435</v>
+        <v>418</v>
       </c>
       <c r="AJ99" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="AK99"/>
       <c r="AL99"/>
@@ -15995,11 +15798,9 @@
         <v>318</v>
       </c>
       <c r="X100"/>
-      <c r="Y100" t="s">
-        <v>430</v>
-      </c>
+      <c r="Y100"/>
       <c r="Z100" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="AA100"/>
       <c r="AB100"/>
@@ -16012,10 +15813,10 @@
       </c>
       <c r="AH100"/>
       <c r="AI100" t="s">
-        <v>435</v>
+        <v>418</v>
       </c>
       <c r="AJ100" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="AK100"/>
       <c r="AL100"/>
@@ -16136,11 +15937,9 @@
         <v>318</v>
       </c>
       <c r="X101"/>
-      <c r="Y101" t="s">
-        <v>430</v>
-      </c>
+      <c r="Y101"/>
       <c r="Z101" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="AA101"/>
       <c r="AB101"/>
@@ -16153,10 +15952,10 @@
       </c>
       <c r="AH101"/>
       <c r="AI101" t="s">
-        <v>435</v>
+        <v>418</v>
       </c>
       <c r="AJ101" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="AK101"/>
       <c r="AL101"/>
@@ -16384,11 +16183,9 @@
         <v>414</v>
       </c>
       <c r="X103"/>
-      <c r="Y103" t="s">
-        <v>430</v>
-      </c>
+      <c r="Y103"/>
       <c r="Z103" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="AA103"/>
       <c r="AB103"/>
@@ -16401,10 +16198,10 @@
       </c>
       <c r="AH103"/>
       <c r="AI103" t="s">
-        <v>435</v>
+        <v>418</v>
       </c>
       <c r="AJ103" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="AK103"/>
       <c r="AL103"/>
@@ -16436,19 +16233,19 @@
       <c r="BL103"/>
       <c r="BM103"/>
       <c r="BN103" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BO103" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BP103" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BQ103" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BR103" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="BS103"/>
       <c r="BT103"/>
@@ -16458,13 +16255,13 @@
       <c r="BX103"/>
       <c r="BY103"/>
       <c r="BZ103" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CA103" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CB103" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="CC103"/>
       <c r="CD103"/>
@@ -16541,11 +16338,9 @@
         <v>414</v>
       </c>
       <c r="X104"/>
-      <c r="Y104" t="s">
-        <v>430</v>
-      </c>
+      <c r="Y104"/>
       <c r="Z104" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="AA104"/>
       <c r="AB104"/>
@@ -16558,10 +16353,10 @@
       </c>
       <c r="AH104"/>
       <c r="AI104" t="s">
-        <v>435</v>
+        <v>418</v>
       </c>
       <c r="AJ104" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="AK104"/>
       <c r="AL104"/>
@@ -16593,19 +16388,19 @@
       <c r="BL104"/>
       <c r="BM104"/>
       <c r="BN104" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BO104" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BP104" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BQ104" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BR104" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="BS104"/>
       <c r="BT104"/>
@@ -16615,13 +16410,13 @@
       <c r="BX104"/>
       <c r="BY104"/>
       <c r="BZ104" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CA104" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CB104" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="CC104"/>
       <c r="CD104"/>
@@ -16698,11 +16493,9 @@
         <v>414</v>
       </c>
       <c r="X105"/>
-      <c r="Y105" t="s">
-        <v>430</v>
-      </c>
+      <c r="Y105"/>
       <c r="Z105" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="AA105"/>
       <c r="AB105"/>
@@ -16715,10 +16508,10 @@
       </c>
       <c r="AH105"/>
       <c r="AI105" t="s">
-        <v>435</v>
+        <v>418</v>
       </c>
       <c r="AJ105" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="AK105"/>
       <c r="AL105"/>
@@ -16946,11 +16739,9 @@
         <v>415</v>
       </c>
       <c r="X107"/>
-      <c r="Y107" t="s">
-        <v>430</v>
-      </c>
+      <c r="Y107"/>
       <c r="Z107" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="AA107"/>
       <c r="AB107"/>
@@ -16994,19 +16785,19 @@
       <c r="BL107"/>
       <c r="BM107"/>
       <c r="BN107" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BO107" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BP107" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BQ107" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BR107" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="BS107"/>
       <c r="BT107"/>
@@ -17016,13 +16807,13 @@
       <c r="BX107"/>
       <c r="BY107"/>
       <c r="BZ107" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CA107" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CB107" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="CC107"/>
       <c r="CD107"/>
@@ -17103,11 +16894,9 @@
         <v>415</v>
       </c>
       <c r="X108"/>
-      <c r="Y108" t="s">
-        <v>430</v>
-      </c>
+      <c r="Y108"/>
       <c r="Z108" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="AA108"/>
       <c r="AB108"/>
@@ -17133,7 +16922,7 @@
       <c r="AT108"/>
       <c r="AU108"/>
       <c r="AV108" t="s">
-        <v>437</v>
+        <v>420</v>
       </c>
       <c r="AW108" t="s">
         <v>318</v>
@@ -17142,7 +16931,7 @@
       <c r="AY108"/>
       <c r="AZ108"/>
       <c r="BA108" t="s">
-        <v>438</v>
+        <v>421</v>
       </c>
       <c r="BB108"/>
       <c r="BC108"/>
@@ -17157,19 +16946,19 @@
       <c r="BL108"/>
       <c r="BM108"/>
       <c r="BN108" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BO108" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BP108" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BQ108" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BR108" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="BS108"/>
       <c r="BT108"/>
@@ -17179,13 +16968,13 @@
       <c r="BX108"/>
       <c r="BY108"/>
       <c r="BZ108" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CA108" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CB108" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="CC108"/>
       <c r="CD108"/>
@@ -17262,11 +17051,9 @@
         <v>318</v>
       </c>
       <c r="X109"/>
-      <c r="Y109" t="s">
-        <v>430</v>
-      </c>
+      <c r="Y109"/>
       <c r="Z109" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="AA109"/>
       <c r="AB109"/>
@@ -17279,10 +17066,10 @@
       </c>
       <c r="AH109"/>
       <c r="AI109" t="s">
-        <v>435</v>
+        <v>418</v>
       </c>
       <c r="AJ109" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="AK109"/>
       <c r="AL109"/>
@@ -17403,11 +17190,9 @@
         <v>415</v>
       </c>
       <c r="X110"/>
-      <c r="Y110" t="s">
-        <v>431</v>
-      </c>
+      <c r="Y110"/>
       <c r="Z110" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="AA110"/>
       <c r="AB110"/>
@@ -17420,10 +17205,10 @@
       </c>
       <c r="AH110"/>
       <c r="AI110" t="s">
-        <v>435</v>
+        <v>418</v>
       </c>
       <c r="AJ110" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="AK110"/>
       <c r="AL110"/>
@@ -17455,19 +17240,19 @@
       <c r="BL110"/>
       <c r="BM110"/>
       <c r="BN110" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BO110" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BP110" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BQ110" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BR110" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="BS110"/>
       <c r="BT110"/>
@@ -17477,13 +17262,13 @@
       <c r="BX110"/>
       <c r="BY110"/>
       <c r="BZ110" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CA110" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CB110" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="CC110"/>
       <c r="CD110"/>
@@ -17560,11 +17345,9 @@
         <v>414</v>
       </c>
       <c r="X111"/>
-      <c r="Y111" t="s">
-        <v>431</v>
-      </c>
+      <c r="Y111"/>
       <c r="Z111" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="AA111"/>
       <c r="AB111"/>
@@ -17577,10 +17360,10 @@
       </c>
       <c r="AH111"/>
       <c r="AI111" t="s">
-        <v>435</v>
+        <v>418</v>
       </c>
       <c r="AJ111" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="AK111"/>
       <c r="AL111"/>
@@ -17612,19 +17395,19 @@
       <c r="BL111"/>
       <c r="BM111"/>
       <c r="BN111" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BO111" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BP111" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BQ111" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BR111" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="BS111"/>
       <c r="BT111"/>
@@ -17634,13 +17417,13 @@
       <c r="BX111"/>
       <c r="BY111"/>
       <c r="BZ111" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CA111" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CB111" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="CC111"/>
       <c r="CD111"/>
@@ -17824,11 +17607,9 @@
         <v>414</v>
       </c>
       <c r="X113"/>
-      <c r="Y113" t="s">
-        <v>431</v>
-      </c>
+      <c r="Y113"/>
       <c r="Z113" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="AA113"/>
       <c r="AB113"/>
@@ -17841,10 +17622,10 @@
       </c>
       <c r="AH113"/>
       <c r="AI113" t="s">
-        <v>435</v>
+        <v>418</v>
       </c>
       <c r="AJ113" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="AK113"/>
       <c r="AL113"/>
@@ -17876,19 +17657,19 @@
       <c r="BL113"/>
       <c r="BM113"/>
       <c r="BN113" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BO113" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BP113" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BQ113" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BR113" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="BS113"/>
       <c r="BT113"/>
@@ -17898,13 +17679,13 @@
       <c r="BX113"/>
       <c r="BY113"/>
       <c r="BZ113" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CA113" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CB113" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="CC113"/>
       <c r="CD113"/>
@@ -18088,11 +17869,9 @@
         <v>415</v>
       </c>
       <c r="X115"/>
-      <c r="Y115" t="s">
-        <v>431</v>
-      </c>
+      <c r="Y115"/>
       <c r="Z115" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="AA115"/>
       <c r="AB115"/>
@@ -18105,10 +17884,10 @@
       </c>
       <c r="AH115"/>
       <c r="AI115" t="s">
-        <v>435</v>
+        <v>418</v>
       </c>
       <c r="AJ115" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="AK115"/>
       <c r="AL115"/>
@@ -18140,19 +17919,19 @@
       <c r="BL115"/>
       <c r="BM115"/>
       <c r="BN115" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BO115" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BP115" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BQ115" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BR115" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="BS115"/>
       <c r="BT115"/>
@@ -18162,13 +17941,13 @@
       <c r="BX115"/>
       <c r="BY115"/>
       <c r="BZ115" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CA115" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CB115" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="CC115"/>
       <c r="CD115"/>
@@ -18352,11 +18131,9 @@
         <v>415</v>
       </c>
       <c r="X117"/>
-      <c r="Y117" t="s">
-        <v>431</v>
-      </c>
+      <c r="Y117"/>
       <c r="Z117" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="AA117"/>
       <c r="AB117"/>
@@ -18369,10 +18146,10 @@
       </c>
       <c r="AH117"/>
       <c r="AI117" t="s">
-        <v>435</v>
+        <v>418</v>
       </c>
       <c r="AJ117" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="AK117"/>
       <c r="AL117"/>
@@ -18404,19 +18181,19 @@
       <c r="BL117"/>
       <c r="BM117"/>
       <c r="BN117" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BO117" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BP117" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BQ117" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BR117" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="BS117"/>
       <c r="BT117"/>
@@ -18426,13 +18203,13 @@
       <c r="BX117"/>
       <c r="BY117"/>
       <c r="BZ117" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CA117" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CB117" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="CC117"/>
       <c r="CD117"/>
@@ -18509,11 +18286,9 @@
         <v>414</v>
       </c>
       <c r="X118"/>
-      <c r="Y118" t="s">
-        <v>432</v>
-      </c>
+      <c r="Y118"/>
       <c r="Z118" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="AA118"/>
       <c r="AB118"/>
@@ -18526,10 +18301,10 @@
       </c>
       <c r="AH118"/>
       <c r="AI118" t="s">
-        <v>435</v>
+        <v>418</v>
       </c>
       <c r="AJ118" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="AK118"/>
       <c r="AL118"/>
@@ -18561,19 +18336,19 @@
       <c r="BL118"/>
       <c r="BM118"/>
       <c r="BN118" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BO118" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BP118" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BQ118" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BR118" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="BS118"/>
       <c r="BT118"/>
@@ -18583,13 +18358,13 @@
       <c r="BX118"/>
       <c r="BY118"/>
       <c r="BZ118" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CA118" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CB118" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="CC118"/>
       <c r="CD118"/>
@@ -18773,11 +18548,9 @@
         <v>414</v>
       </c>
       <c r="X120"/>
-      <c r="Y120" t="s">
-        <v>433</v>
-      </c>
+      <c r="Y120"/>
       <c r="Z120" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="AA120"/>
       <c r="AB120"/>
@@ -18821,19 +18594,19 @@
       <c r="BL120"/>
       <c r="BM120"/>
       <c r="BN120" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BO120" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BP120" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BQ120" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BR120" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="BS120"/>
       <c r="BT120"/>
@@ -18843,13 +18616,13 @@
       <c r="BX120"/>
       <c r="BY120"/>
       <c r="BZ120" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CA120" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CB120" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="CC120"/>
       <c r="CD120"/>
@@ -19033,11 +18806,9 @@
         <v>414</v>
       </c>
       <c r="X122"/>
-      <c r="Y122" t="s">
-        <v>430</v>
-      </c>
+      <c r="Y122"/>
       <c r="Z122" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="AA122"/>
       <c r="AB122"/>
@@ -19050,10 +18821,10 @@
       </c>
       <c r="AH122"/>
       <c r="AI122" t="s">
-        <v>435</v>
+        <v>418</v>
       </c>
       <c r="AJ122" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="AK122"/>
       <c r="AL122"/>
@@ -19281,11 +19052,9 @@
         <v>415</v>
       </c>
       <c r="X124"/>
-      <c r="Y124" t="s">
-        <v>430</v>
-      </c>
+      <c r="Y124"/>
       <c r="Z124" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="AA124"/>
       <c r="AB124"/>
@@ -19329,19 +19098,19 @@
       <c r="BL124"/>
       <c r="BM124"/>
       <c r="BN124" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BO124" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BP124" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BQ124" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BR124" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="BS124"/>
       <c r="BT124"/>
@@ -19351,13 +19120,13 @@
       <c r="BX124"/>
       <c r="BY124"/>
       <c r="BZ124" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CA124" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CB124" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="CC124"/>
       <c r="CD124"/>
@@ -19434,11 +19203,9 @@
         <v>415</v>
       </c>
       <c r="X125"/>
-      <c r="Y125" t="s">
-        <v>430</v>
-      </c>
+      <c r="Y125"/>
       <c r="Z125" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="AA125"/>
       <c r="AB125"/>
@@ -19482,19 +19249,19 @@
       <c r="BL125"/>
       <c r="BM125"/>
       <c r="BN125" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BO125" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BP125" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BQ125" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="BR125" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="BS125"/>
       <c r="BT125"/>
@@ -19504,13 +19271,13 @@
       <c r="BX125"/>
       <c r="BY125"/>
       <c r="BZ125" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CA125" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="CB125" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="CC125"/>
       <c r="CD125"/>
